--- a/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-2-regional-categorie-juridique-latest.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9593127.25</t>
+          <t>9595127.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5861290.38</t>
+          <t>5886590.53</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1085310.23</t>
+          <t>1090826.23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8062057.28</t>
+          <t>8291040.22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>794</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4936090.28</t>
+          <t>5030000.28</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10143</t>
+          <t>10144</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>29323153.25</t>
+          <t>29325153.25</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2899,12 +2899,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6682</t>
+          <t>6684</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>28861781.83</t>
+          <t>28881781.83</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4414105.68</t>
+          <t>4458316.04</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4579,12 +4579,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3793586.09</t>
+          <t>3795586.09</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
